--- a/workshop_paper/Task_Result_Analysis.xlsx
+++ b/workshop_paper/Task_Result_Analysis.xlsx
@@ -469,31 +469,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101859712"/>
-        <c:axId val="101861248"/>
+        <c:axId val="73036928"/>
+        <c:axId val="73038464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101859712"/>
+        <c:axId val="73036928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101861248"/>
+        <c:crossAx val="73038464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101861248"/>
+        <c:axId val="73038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101859712"/>
+        <c:crossAx val="73036928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -506,7 +506,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:G17"/>
+  <dimension ref="A7:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -951,7 +951,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -965,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -979,7 +979,81 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18">
+        <f>STDEV(B8:B17)</f>
+        <v>7.1620915629134196E-2</v>
+      </c>
+      <c r="C18">
+        <f>STDEV(C8:C17)</f>
+        <v>9.595606633593648E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19">
+        <f>STDEVA(B8:B17)</f>
+        <v>7.1620915629134196E-2</v>
+      </c>
+      <c r="C19">
+        <f>STDEVA(C8:C17)</f>
+        <v>9.595606633593648E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
   </sheetData>
+  <sortState ref="J22:J31">
+    <sortCondition descending="1" ref="J21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
